--- a/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe & Mixing Table Printouts/pCa_solutions_pH70_15C.xlsx
+++ b/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe & Mixing Table Printouts/pCa_solutions_pH70_15C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinminton/Downloads/pCa_solutions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinminton/Documents/GitHub/Protocols/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe &amp; Mixing Table Printouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7406125D-F890-6E4A-98C6-906A799BA89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751250E4-43C5-0245-A842-9B40987045A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="2880" windowWidth="21900" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t xml:space="preserve">pCa Solutions pH 7.0 @ 15C </t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">Corrected MW </t>
   </si>
   <si>
-    <t xml:space="preserve">Final Conc </t>
-  </si>
-  <si>
     <t>Amount for 1 L</t>
   </si>
   <si>
@@ -159,33 +156,21 @@
     <t xml:space="preserve">4.90mM </t>
   </si>
   <si>
-    <t xml:space="preserve">35mL </t>
-  </si>
-  <si>
     <t xml:space="preserve">5.23mM </t>
   </si>
   <si>
-    <t xml:space="preserve">5.23mL </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ionic Strength is 180mM if 32mM is used for pHing. </t>
   </si>
   <si>
     <t xml:space="preserve">13.7µM </t>
   </si>
   <si>
-    <t>137µL</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>10.82mL</t>
-  </si>
-  <si>
     <t>SLCH4035</t>
   </si>
   <si>
@@ -195,27 +180,32 @@
     <t>SLCK8483</t>
   </si>
   <si>
-    <t>70mL</t>
-  </si>
-  <si>
-    <t>10.46mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.25 µL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.705mL </t>
-  </si>
-  <si>
     <t>Amt Weighed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Conc. </t>
+  </si>
+  <si>
+    <t>µL</t>
+  </si>
+  <si>
+    <t>mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -258,10 +248,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,31 +539,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -574,44 +574,44 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>57</v>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -619,13 +619,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>380.35</v>
@@ -638,21 +638,21 @@
         <v>388.50868232890707</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
         <f>0.007*1*G4</f>
         <v>2.7195607763023495</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1">
         <f>I4/4</f>
         <v>0.67989019407558737</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -661,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1">
         <v>68.08</v>
@@ -680,21 +680,21 @@
         <v>68.767676767676761</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1">
         <f>0.02*1*G5</f>
         <v>1.3753535353535353</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K8" si="0">I5/4</f>
         <v>0.34383838383838383</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -703,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
         <v>74.56</v>
@@ -722,21 +722,21 @@
         <v>75.313131313131322</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1">
         <f>0.068*1*G6</f>
         <v>5.1212929292929301</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
         <v>1.2803232323232325</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>58203023</v>
@@ -764,21 +764,21 @@
         <v>333.81632653061223</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1">
         <f>0.0145*1*G7</f>
         <v>4.8403367346938779</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>1.2100841836734695</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -787,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>55208922</v>
@@ -806,21 +806,21 @@
         <v>694.03669724770646</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1">
         <f>0.00483*1*G8</f>
         <v>3.3521972477064224</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>0.83804931192660559</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -829,34 +829,40 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="I9" s="4">
+        <f>13.7/0.1</f>
+        <v>136.99999999999997</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9/4</f>
+        <v>34.249999999999993</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -864,34 +870,40 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="1"/>
+      <c r="I10" s="4">
+        <f>5.41/0.5</f>
+        <v>10.82</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10/4</f>
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -900,19 +912,19 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -923,105 +935,150 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
+      <c r="A19" t="s">
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="E19" s="1">
+        <v>380.35</v>
+      </c>
+      <c r="F19" s="1">
+        <v>97.9</v>
+      </c>
+      <c r="G19" s="1">
+        <f>(E19/F19)*100</f>
+        <v>388.50868232890707</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <f>0.007*1*G19</f>
+        <v>2.7195607763023495</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19/2</f>
+        <v>1.3597803881511747</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1">
-        <v>380.35</v>
+        <v>68.08</v>
       </c>
       <c r="F20" s="1">
-        <v>97.9</v>
+        <v>99</v>
       </c>
       <c r="G20" s="1">
         <f>(E20/F20)*100</f>
-        <v>388.50868232890707</v>
+        <v>68.767676767676761</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1">
-        <f>0.007*1*G20</f>
-        <v>2.7195607763023495</v>
+        <f>0.02*1*G20</f>
+        <v>1.3753535353535353</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K20" s="1">
-        <f>I20/2</f>
-        <v>1.3597803881511747</v>
+        <f t="shared" ref="K20:K23" si="2">I20/2</f>
+        <v>0.68767676767676766</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -1030,40 +1087,40 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
-        <v>68.08</v>
+        <v>74.56</v>
       </c>
       <c r="F21" s="1">
         <v>99</v>
       </c>
       <c r="G21" s="1">
-        <f>(E21/F21)*100</f>
-        <v>68.767676767676761</v>
+        <f t="shared" ref="G21:G23" si="3">(E21/F21)*100</f>
+        <v>75.313131313131322</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1">
-        <f>0.02*1*G21</f>
-        <v>1.3753535353535353</v>
+        <f>0.052*1*G21</f>
+        <v>3.9162828282828284</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21:K24" si="2">I21/2</f>
-        <v>0.68767676767676766</v>
+        <f t="shared" si="2"/>
+        <v>1.9581414141414142</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -1072,40 +1129,40 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>58203023</v>
       </c>
       <c r="E22" s="1">
-        <v>74.56</v>
+        <v>327.14</v>
       </c>
       <c r="F22" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ref="G22:G24" si="3">(E22/F22)*100</f>
-        <v>75.313131313131322</v>
+        <f t="shared" si="3"/>
+        <v>333.81632653061223</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I22" s="1">
-        <f>0.052*1*G22</f>
-        <v>3.9162828282828284</v>
+        <f>0.0145*1*G22</f>
+        <v>4.8403367346938779</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="2"/>
-        <v>1.9581414141414142</v>
+        <v>2.420168367346939</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -1114,40 +1171,40 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>58203023</v>
+        <v>55208922</v>
       </c>
       <c r="E23" s="1">
-        <v>327.14</v>
+        <v>605.20000000000005</v>
       </c>
       <c r="F23" s="1">
-        <v>98</v>
+        <v>87.2</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>333.81632653061223</v>
+        <v>694.03669724770646</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1">
-        <f>0.0145*1*G23</f>
-        <v>4.8403367346938779</v>
+        <f>0.0049*1*G23</f>
+        <v>3.4007798165137615</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
-        <v>2.420168367346939</v>
+        <v>1.7003899082568807</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N23" s="1"/>
     </row>
@@ -1156,40 +1213,39 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1">
-        <v>55208922</v>
-      </c>
-      <c r="E24" s="1">
-        <v>605.20000000000005</v>
-      </c>
-      <c r="F24" s="1">
-        <v>87.2</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="3"/>
-        <v>694.03669724770646</v>
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f>0.0049*1*G24</f>
-        <v>3.4007798165137615</v>
+        <f>7/0.1</f>
+        <v>70</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7003899082568807</v>
+        <f>I24/2</f>
+        <v>35</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -1198,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -1213,70 +1269,52 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="I25" s="1">
+        <f>5.23/0.5</f>
+        <v>10.46</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25/2</f>
+        <v>5.23</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1</v>
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1291,25 +1329,22 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A30:D30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I21" formula="1"/>
+    <ignoredError sqref="I20" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1321,6 +1356,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LabArchives xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <BaseUri>https://mynotebook.labarchives.com</BaseUri>
+  <eid>Mzg0Ljh8NjczMzIxLzI5Ni9FbnRyeVBhcnQvMzU2NTc0OTczOHw5NzYuOA==</eid>
+  <version>1</version>
+  <updated-at>2022-02-15T10:48:35-05:00</updated-at>
+</LabArchives>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1543,24 +1596,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LabArchives xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <BaseUri>https://mynotebook.labarchives.com</BaseUri>
-  <eid>Mzg0Ljh8NjczMzIxLzI5Ni9FbnRyeVBhcnQvMzU2NTc0OTczOHw5NzYuOA==</eid>
-  <version>1</version>
-  <updated-at>2022-02-15T10:48:35-05:00</updated-at>
-</LabArchives>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFD59F3-A0AA-4D45-8D5F-766164F0D938}">
   <ds:schemaRefs>
@@ -1571,6 +1606,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADE4643-79F2-4ADF-8B38-935B76B1A047}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DDD94B9-3087-4DD8-986B-C658468333C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D626944-50B8-4ECB-ACA5-37ABECEC213A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1587,20 +1638,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DDD94B9-3087-4DD8-986B-C658468333C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADE4643-79F2-4ADF-8B38-935B76B1A047}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>